--- a/Code analysis/NLP/Analysis/Text analytics/LDA/lda.xlsx
+++ b/Code analysis/NLP/Analysis/Text analytics/LDA/lda.xlsx
@@ -552,7 +552,7 @@
         <v>8</v>
       </c>
       <c r="K3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -681,7 +681,7 @@
         <v>5</v>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F2" t="n">
         <v>7</v>
@@ -715,19 +715,19 @@
         <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
       </c>
       <c r="F3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G3" t="n">
         <v>5</v>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I3" t="n">
         <v>8</v>
@@ -749,7 +749,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
         <v>8</v>
@@ -883,7 +883,7 @@
         <v>5</v>
       </c>
       <c r="K2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -899,7 +899,7 @@
         <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -939,7 +939,7 @@
         <v>8</v>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F4" t="n">
         <v>7</v>
@@ -1104,7 +1104,7 @@
         <v>8</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">

--- a/Code analysis/NLP/Analysis/Text analytics/LDA/lda.xlsx
+++ b/Code analysis/NLP/Analysis/Text analytics/LDA/lda.xlsx
@@ -488,31 +488,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
         <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G2" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
         <v>6</v>
@@ -525,34 +525,34 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
         <v>8</v>
       </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
       <c r="D3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
       </c>
       <c r="F3" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
         <v>7</v>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>6</v>
       </c>
       <c r="J3" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -568,10 +568,10 @@
         <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
         <v>5</v>
@@ -580,13 +580,13 @@
         <v>8</v>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -672,28 +672,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H2" t="n">
         <v>5</v>
       </c>
       <c r="I2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
         <v>6</v>
@@ -712,25 +712,25 @@
         <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
       </c>
       <c r="F3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
         <v>6</v>
@@ -749,10 +749,10 @@
         <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
         <v>6</v>
@@ -764,13 +764,13 @@
         <v>5</v>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -856,34 +856,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
         <v>5</v>
       </c>
       <c r="K2" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G3" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H3" t="n">
         <v>7</v>
       </c>
       <c r="I3" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J3" t="n">
         <v>5</v>
@@ -936,25 +936,25 @@
         <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
         <v>7</v>
       </c>
       <c r="G4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
         <v>6</v>
@@ -1043,7 +1043,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>6</v>
@@ -1055,16 +1055,16 @@
         <v>6</v>
       </c>
       <c r="F2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J2" t="n">
         <v>5</v>
@@ -1086,25 +1086,25 @@
         <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
         <v>7</v>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1114,7 +1114,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>8</v>
@@ -1123,22 +1123,22 @@
         <v>8</v>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F4" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
